--- a/src/test/java/Marriage/Yadav/matahdata.xlsx
+++ b/src/test/java/Marriage/Yadav/matahdata.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1800" uniqueCount="368">
   <si>
     <t>Name</t>
   </si>
@@ -32,57 +32,528 @@
     <t>Profile Number</t>
   </si>
   <si>
-    <t>Manasa K</t>
+    <t>Vallapu Jyothi</t>
+  </si>
+  <si>
+    <t>28 yrs, 5 ft 5 in / 165 cm</t>
+  </si>
+  <si>
+    <t>MBA , Genpact</t>
+  </si>
+  <si>
+    <t>India, Telangana, Hyderabad</t>
+  </si>
+  <si>
+    <t>Activity 3 mths ago</t>
+  </si>
+  <si>
+    <t>TEC288496 | Profile Created for  Sister</t>
+  </si>
+  <si>
+    <t>Mohana Sarvani</t>
+  </si>
+  <si>
+    <t>26 yrs, 5 ft 3 in / 160 cm</t>
+  </si>
+  <si>
+    <t>B.Tech. , Kl University</t>
+  </si>
+  <si>
+    <t>India, Andhra Pradesh, Guntur</t>
+  </si>
+  <si>
+    <t>TEC336129| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Harshini</t>
+  </si>
+  <si>
+    <t>B.Tech.</t>
+  </si>
+  <si>
+    <t>TEC295460| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Mahi</t>
+  </si>
+  <si>
+    <t>27 yrs, 5 ft 6 in / 168 cm</t>
+  </si>
+  <si>
+    <t>India, Andhra Pradesh, Nellore</t>
+  </si>
+  <si>
+    <t>TEC394564| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Jansi</t>
+  </si>
+  <si>
+    <t>26 yrs, 5 ft 5 in / 165 cm</t>
+  </si>
+  <si>
+    <t>M.Sc.</t>
+  </si>
+  <si>
+    <t>TEC335120| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Jala Ashwini</t>
+  </si>
+  <si>
+    <t>28 yrs, 5 ft 3 in / 160 cm</t>
+  </si>
+  <si>
+    <t>TEC333228| Profile Created for  Sister</t>
+  </si>
+  <si>
+    <t>Anusha</t>
+  </si>
+  <si>
+    <t>B.Tech. , ANUBOSE INSTITUTE OF TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>India, Telangana, Khammam</t>
+  </si>
+  <si>
+    <t>TEC281039| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Monika</t>
+  </si>
+  <si>
+    <t>India, Telangana, Mahabubabad</t>
+  </si>
+  <si>
+    <t>TEC323173| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Kalyani</t>
+  </si>
+  <si>
+    <t>26 yrs, 5 ft 4 in / 162 cm</t>
+  </si>
+  <si>
+    <t>Activity 17 hrs ago</t>
+  </si>
+  <si>
+    <t>TEC747882| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Pallavi</t>
+  </si>
+  <si>
+    <t>25 yrs, 5 ft 3 in / 160 cm</t>
+  </si>
+  <si>
+    <t>M.Tech.</t>
+  </si>
+  <si>
+    <t>India, Telangana, Secunderabad</t>
+  </si>
+  <si>
+    <t>Activity 1 day ago</t>
+  </si>
+  <si>
+    <t>TEC809153| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Naini Manasa</t>
+  </si>
+  <si>
+    <t>27 yrs, 5 ft 5 in / 165 cm</t>
+  </si>
+  <si>
+    <t>Activity 4 days ago</t>
+  </si>
+  <si>
+    <t>TEC805099| Profile Created for  Self</t>
+  </si>
+  <si>
+    <t>Sramika Galla</t>
+  </si>
+  <si>
+    <t>TEC620864| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Sushma</t>
+  </si>
+  <si>
+    <t>Activity 1 wk ago</t>
+  </si>
+  <si>
+    <t>TEC608649| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Divya Jawaji</t>
+  </si>
+  <si>
+    <t>B.Tech. , Kakatiya Institute of Technology and Sci...</t>
+  </si>
+  <si>
+    <t>TEC198013| Profile Created for  Self</t>
+  </si>
+  <si>
+    <t>Yamini</t>
+  </si>
+  <si>
+    <t>24 yrs, 5 ft 3 in / 160 cm</t>
+  </si>
+  <si>
+    <t>India, Andhra Pradesh, Pamur</t>
+  </si>
+  <si>
+    <t>TEC747878| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Jansree</t>
+  </si>
+  <si>
+    <t>24 yrs, 5 ft 4 in / 162 cm</t>
+  </si>
+  <si>
+    <t>BCA</t>
+  </si>
+  <si>
+    <t>India, Andhra Pradesh, Tirupati</t>
+  </si>
+  <si>
+    <t>Activity 3 wks ago</t>
+  </si>
+  <si>
+    <t>TEC758629| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Deeksha Yadav</t>
+  </si>
+  <si>
+    <t>28 yrs, 5 ft 6 in / 168 cm</t>
+  </si>
+  <si>
+    <t>B.Tech. , Institute of Aeronautical Engineering</t>
+  </si>
+  <si>
+    <t>Activity 1 mth ago</t>
+  </si>
+  <si>
+    <t>TEC879211| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Divya</t>
+  </si>
+  <si>
+    <t>India, Telangana, Warangal</t>
+  </si>
+  <si>
+    <t>TEC408356| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>TEC427933| Profile Created for  Self</t>
+  </si>
+  <si>
+    <t>Lavanya</t>
+  </si>
+  <si>
+    <t>M.Tech. , NIT suratkal</t>
+  </si>
+  <si>
+    <t>TEC597662| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Later</t>
+  </si>
+  <si>
+    <t>India, Andhra Pradesh, Tenali</t>
+  </si>
+  <si>
+    <t>TEC905296| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Varshitha</t>
+  </si>
+  <si>
+    <t>B.Tech. , ACE Engineering College</t>
+  </si>
+  <si>
+    <t>India, Telangana, Bhongir</t>
+  </si>
+  <si>
+    <t>TEC915487| Profile Created for  Self</t>
+  </si>
+  <si>
+    <t>Activity 2 days ago</t>
+  </si>
+  <si>
+    <t>TEC918170| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Samyuktha</t>
+  </si>
+  <si>
+    <t>India, Telangana, Miryalguda</t>
+  </si>
+  <si>
+    <t>TEC918172| Profile Created for  Self</t>
+  </si>
+  <si>
+    <t>Chittiboina Swetha</t>
+  </si>
+  <si>
+    <t>27 yrs, 5 ft 4 in / 162 cm</t>
+  </si>
+  <si>
+    <t>B.Tech. , JNTUH College of Engineering, Sultanpur</t>
+  </si>
+  <si>
+    <t>India, Telangana, Bhadrachalam</t>
+  </si>
+  <si>
+    <t>TEC322117| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Thotla Pooja</t>
+  </si>
+  <si>
+    <t>B.Tech. , SPMVV - Sri Padmavati Mahila Visvavidyal...</t>
+  </si>
+  <si>
+    <t>India, Telangana, Bhadradri Kothagudem</t>
+  </si>
+  <si>
+    <t>TEC635616| Profile Created for  Sister</t>
+  </si>
+  <si>
+    <t>Jakkula Shirisha</t>
+  </si>
+  <si>
+    <t>MBA</t>
+  </si>
+  <si>
+    <t>TEC508567 | Profile Created for  Self</t>
+  </si>
+  <si>
+    <t>Neha Dasari</t>
+  </si>
+  <si>
+    <t>TEC576493| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>TEC599118| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Shobha Rani</t>
+  </si>
+  <si>
+    <t>B.Tech. , Malla Reddy Engineering College for Wome...</t>
+  </si>
+  <si>
+    <t>TEC409638| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Swetha Ramanaboina</t>
+  </si>
+  <si>
+    <t>B.Tech. , CMR Technical Campus</t>
+  </si>
+  <si>
+    <t>India, Andhra Pradesh, Cuddapah</t>
+  </si>
+  <si>
+    <t>TEC391439| Profile Created for  Sister</t>
+  </si>
+  <si>
+    <t>B Tejaswini</t>
+  </si>
+  <si>
+    <t>TEC371155| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>TEC391438| Profile Created for  Sister</t>
+  </si>
+  <si>
+    <t>24 yrs, 5 ft 8 in / 172 cm</t>
+  </si>
+  <si>
+    <t>India, Andhra Pradesh, Ongole</t>
+  </si>
+  <si>
+    <t>TEC557496| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Sreevani</t>
   </si>
   <si>
     <t>27 yrs, 5 ft 3 in / 160 cm</t>
   </si>
   <si>
-    <t>B.Tech. , JNTUH College of Engineering, Hyderabad</t>
-  </si>
-  <si>
-    <t>India, Telangana, Hyderabad</t>
-  </si>
-  <si>
-    <t>Activity 1 mth ago</t>
-  </si>
-  <si>
-    <t>TEC456270 | Profile Created for  Daughter</t>
-  </si>
-  <si>
-    <t>Lavanya</t>
-  </si>
-  <si>
-    <t>26 yrs, 5 ft 3 in / 160 cm</t>
-  </si>
-  <si>
-    <t>M.Tech. , NIT suratkal</t>
-  </si>
-  <si>
-    <t>TEC597662| Profile Created for  Daughter</t>
+    <t>B.Tech. , SNIST - Sreenidhi Institute Of Science A...</t>
+  </si>
+  <si>
+    <t>TEC530901| Profile Created for  Self</t>
+  </si>
+  <si>
+    <t>Narra Krishna Kavyatha</t>
+  </si>
+  <si>
+    <t>B.Tech. , Bapatla Engineering College&amp;#44; Bapatla...</t>
+  </si>
+  <si>
+    <t>India, Andhra Pradesh, Bapatla</t>
+  </si>
+  <si>
+    <t>TEC364156| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Yarrakula Rukmini</t>
+  </si>
+  <si>
+    <t>India, Andhra Pradesh, Chirala</t>
+  </si>
+  <si>
+    <t>TEC424719| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Yamini Lakshmi Prasanna</t>
+  </si>
+  <si>
+    <t>28 yrs, 5 ft 4 in / 162 cm</t>
+  </si>
+  <si>
+    <t>India, Andhra Pradesh, Tanuku</t>
+  </si>
+  <si>
+    <t>TEC255692| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>P Susritha</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>India, Andhra Pradesh, Puttur (Chittoor)</t>
+  </si>
+  <si>
+    <t>TEC264095| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Dantham Sai Mrudula</t>
+  </si>
+  <si>
+    <t>TEC321092| Profile Created for  Sister</t>
+  </si>
+  <si>
+    <t>Thadiboina Sravana Sandhya</t>
+  </si>
+  <si>
+    <t>M.Sc. IT / Computer Science , TJPS College - Andhr...</t>
+  </si>
+  <si>
+    <t>India, Andhra Pradesh, Chilakaluripet</t>
+  </si>
+  <si>
+    <t>TEC363370| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Ramya Giravena</t>
+  </si>
+  <si>
+    <t>MBA , CMR College of Engineering and Technology</t>
+  </si>
+  <si>
+    <t>India, Telangana, Mandamarri</t>
+  </si>
+  <si>
+    <t>TEC363617| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>TEC363618| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Deva Deepika Kodidala</t>
+  </si>
+  <si>
+    <t>TEC392128| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Chiluka Laxmiprasanna</t>
+  </si>
+  <si>
+    <t>B.M.M. , International Academy of Computer Institu...</t>
+  </si>
+  <si>
+    <t>TEC397847| Profile Created for  Self</t>
+  </si>
+  <si>
+    <t>Rani</t>
+  </si>
+  <si>
+    <t>B.Sc.</t>
+  </si>
+  <si>
+    <t>TEC398606| Profile Created for  Sister</t>
+  </si>
+  <si>
+    <t>Meesala Mounika</t>
+  </si>
+  <si>
+    <t>MCA</t>
+  </si>
+  <si>
+    <t>TEC404508| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Ravulapalli Sravanthi</t>
+  </si>
+  <si>
+    <t>25 yrs, 5 ft 5 in / 165 cm</t>
+  </si>
+  <si>
+    <t>TEC424717| Profile Created for  Sister</t>
+  </si>
+  <si>
+    <t>B.Tech. , CMR Engineering College, CMR Group of In...</t>
+  </si>
+  <si>
+    <t>TEC438919| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Manasa</t>
+  </si>
+  <si>
+    <t>B.Tech. , St.Martons</t>
+  </si>
+  <si>
+    <t>TEC442627| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Ch. Mounika</t>
+  </si>
+  <si>
+    <t>26 yrs, 5 ft 7 in / 170 cm</t>
+  </si>
+  <si>
+    <t>TEC458883| Profile Created for  Sister</t>
+  </si>
+  <si>
+    <t>TEC482574| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>TEC805099 | Profile Created for  Self</t>
   </si>
   <si>
     <t>Harshitha Rachuri</t>
   </si>
   <si>
-    <t>24 yrs, 5 ft 4 in / 162 cm</t>
-  </si>
-  <si>
     <t>B.Tech. , TKR College of Engineering and Technolog...</t>
   </si>
   <si>
-    <t>India, Telangana, Bhadrachalam</t>
-  </si>
-  <si>
     <t>TEC781249| Profile Created for  Sister</t>
   </si>
   <si>
     <t>Kandula Lakshmi Prasanna</t>
   </si>
   <si>
-    <t>25 yrs, 5 ft 5 in / 165 cm</t>
-  </si>
-  <si>
     <t>B.Tech. , Sri Sarathi Institute Of Engineering And...</t>
   </si>
   <si>
@@ -98,12 +569,6 @@
     <t>Bhavani Prasanna Talari</t>
   </si>
   <si>
-    <t>26 yrs, 5 ft 4 in / 162 cm</t>
-  </si>
-  <si>
-    <t>B.Tech.</t>
-  </si>
-  <si>
     <t>India, Andhra Pradesh, Gudivada (Krishna)</t>
   </si>
   <si>
@@ -113,24 +578,9 @@
     <t>Pooja</t>
   </si>
   <si>
-    <t>India, Andhra Pradesh, Nellore</t>
-  </si>
-  <si>
     <t>TEC857222| Profile Created for  Daughter</t>
   </si>
   <si>
-    <t>Thrishula Mandala</t>
-  </si>
-  <si>
-    <t>B.Tech. , CMR Institute of Technology</t>
-  </si>
-  <si>
-    <t>India, Telangana, Ramagundam</t>
-  </si>
-  <si>
-    <t>TEC322120| Profile Created for  Daughter</t>
-  </si>
-  <si>
     <t>A Akhila</t>
   </si>
   <si>
@@ -143,15 +593,9 @@
     <t>India, Telangana, Wanaparthi</t>
   </si>
   <si>
-    <t>Activity 3 mths ago</t>
-  </si>
-  <si>
     <t>TEC784455| Profile Created for  Daughter</t>
   </si>
   <si>
-    <t>TEC456269| Profile Created for  Daughter</t>
-  </si>
-  <si>
     <t>Balina Naga Sowmya</t>
   </si>
   <si>
@@ -173,9 +617,6 @@
     <t>Shirisha</t>
   </si>
   <si>
-    <t>28 yrs, 5 ft 4 in / 162 cm</t>
-  </si>
-  <si>
     <t>TEC722428| Profile Created for  Daughter</t>
   </si>
   <si>
@@ -191,15 +632,441 @@
     <t>Sarojini</t>
   </si>
   <si>
-    <t>25 yrs, 5 ft 3 in / 160 cm</t>
-  </si>
-  <si>
     <t>India, Andhra Pradesh, Kovvur</t>
   </si>
   <si>
     <t>TEC617017| Profile Created for  Self</t>
   </si>
   <si>
+    <t>Mekapothula Ramya</t>
+  </si>
+  <si>
+    <t>B.Com. , Kakaraparti bhavanarayana college</t>
+  </si>
+  <si>
+    <t>TEC559169| Profile Created for  Sister</t>
+  </si>
+  <si>
+    <t>25 yrs, 5 ft 4 in / 162 cm</t>
+  </si>
+  <si>
+    <t>TEC593145| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Aakula Sravani</t>
+  </si>
+  <si>
+    <t>M.Sc. IT / Computer Science</t>
+  </si>
+  <si>
+    <t>TEC612803| Profile Created for  Sister</t>
+  </si>
+  <si>
+    <t>Pravalika</t>
+  </si>
+  <si>
+    <t>TEC646691| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Bindu</t>
+  </si>
+  <si>
+    <t>25 yrs, 5 ft 8 in / 172 cm</t>
+  </si>
+  <si>
+    <t>B.Sc IT/ Computer Science</t>
+  </si>
+  <si>
+    <t>TEC656286| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Mounika Mantipally</t>
+  </si>
+  <si>
+    <t>India, Telangana, Yadadri Bhuvanagiri</t>
+  </si>
+  <si>
+    <t>TEC741575| Profile Created for  Sister</t>
+  </si>
+  <si>
+    <t>Ummadipolu Maha Lakshmi</t>
+  </si>
+  <si>
+    <t>TEC767105 | Profile Created for  Sister</t>
+  </si>
+  <si>
+    <t>Sravanthi</t>
+  </si>
+  <si>
+    <t>India, Andhra Pradesh, Proddatur</t>
+  </si>
+  <si>
+    <t>TEC769785| Profile Created for  Sister</t>
+  </si>
+  <si>
+    <t>Lavanya B</t>
+  </si>
+  <si>
+    <t>B.Tech. , APIIIT Kadapa</t>
+  </si>
+  <si>
+    <t>TEC772132| Profile Created for  Self</t>
+  </si>
+  <si>
+    <t>Yoga Siva Sri</t>
+  </si>
+  <si>
+    <t>B.Tech. , NIT Trichy - National Institute of Techn...</t>
+  </si>
+  <si>
+    <t>India, Andhra Pradesh, Visakhapatnam</t>
+  </si>
+  <si>
+    <t>TEC786019| Profile Created for  Sister</t>
+  </si>
+  <si>
+    <t>Chaitanya</t>
+  </si>
+  <si>
+    <t>B.Tech. , Vignan University</t>
+  </si>
+  <si>
+    <t>TEC788767| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Shobha Rani B</t>
+  </si>
+  <si>
+    <t>MCA , Vaagdevi College of Engineering</t>
+  </si>
+  <si>
+    <t>TEC789463| Profile Created for  Self</t>
+  </si>
+  <si>
+    <t>Chevula Hima Bindu</t>
+  </si>
+  <si>
+    <t>TEC807792| Profile Created for  Sister</t>
+  </si>
+  <si>
+    <t>Gundala Syamala Jayasree</t>
+  </si>
+  <si>
+    <t>24 yrs, 5 ft 7 in / 170 cm</t>
+  </si>
+  <si>
+    <t>TEC823752| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Kumari Gorla</t>
+  </si>
+  <si>
+    <t>India, Andhra Pradesh, Narsapur</t>
+  </si>
+  <si>
+    <t>TEC829078| Profile Created for  Sister</t>
+  </si>
+  <si>
+    <t>Danamaina Soujanya</t>
+  </si>
+  <si>
+    <t>B.Tech. , tkr college of engineering and technolog...</t>
+  </si>
+  <si>
+    <t>India, Telangana, Nizamabad</t>
+  </si>
+  <si>
+    <t>TEC829679| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Lakshmi Prasanna</t>
+  </si>
+  <si>
+    <t>26 yrs, 5 ft 6 in / 168 cm</t>
+  </si>
+  <si>
+    <t>India, Andhra Pradesh, Eluru</t>
+  </si>
+  <si>
+    <t>TEC831484| Profile Created for  Sister</t>
+  </si>
+  <si>
+    <t>Chandana</t>
+  </si>
+  <si>
+    <t>TEC173675| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Gangula Poojitha</t>
+  </si>
+  <si>
+    <t>TEC127429| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>TEC120680| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Varshitha Rodda</t>
+  </si>
+  <si>
+    <t>Masters in Engineering / Computers</t>
+  </si>
+  <si>
+    <t>TEC140293| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Soniya</t>
+  </si>
+  <si>
+    <t>TEC121130| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Sandhya</t>
+  </si>
+  <si>
+    <t>India, Andhra Pradesh,</t>
+  </si>
+  <si>
+    <t>TEC155192| Profile Created for  Self</t>
+  </si>
+  <si>
+    <t>TEC159093| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>TEC181737| Profile Created for  Self</t>
+  </si>
+  <si>
+    <t>Swetha</t>
+  </si>
+  <si>
+    <t>TEC195500| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Pavani</t>
+  </si>
+  <si>
+    <t>B.Tech. , Bapatla Engineering College</t>
+  </si>
+  <si>
+    <t>TEC206597| Profile Created for  Sister</t>
+  </si>
+  <si>
+    <t>Lakshmi Priya Yadav</t>
+  </si>
+  <si>
+    <t>B.Tech. , Sri devi womens engineering college</t>
+  </si>
+  <si>
+    <t>TEC222589| Profile Created for  Sister</t>
+  </si>
+  <si>
+    <t>Mounika</t>
+  </si>
+  <si>
+    <t>India, Andhra Pradesh, Anantapur</t>
+  </si>
+  <si>
+    <t>TEC231625| Profile Created for  Self</t>
+  </si>
+  <si>
+    <t>Archana</t>
+  </si>
+  <si>
+    <t>TEC235739| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>India, Telangana, Jayashankar / Jayashankar Bhupalpally</t>
+  </si>
+  <si>
+    <t>TEC238416| Profile Created for  Sister</t>
+  </si>
+  <si>
+    <t>Sai Sreshta Matta</t>
+  </si>
+  <si>
+    <t>India, Andhra Pradesh, Kakinada</t>
+  </si>
+  <si>
+    <t>Activity 22 hrs ago</t>
+  </si>
+  <si>
+    <t>TEC501794| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>TEC514991 | Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Satya</t>
+  </si>
+  <si>
+    <t>B.Tech. , Sri Venkateshwara Institute Of Engineeri...</t>
+  </si>
+  <si>
+    <t>India, Andhra Pradesh, Bheemavaram</t>
+  </si>
+  <si>
+    <t>TEC147407| Profile Created for  Relative</t>
+  </si>
+  <si>
+    <t>Devaki</t>
+  </si>
+  <si>
+    <t>India, Andhra Pradesh, Machilipatnam</t>
+  </si>
+  <si>
+    <t>Activity 5 days ago</t>
+  </si>
+  <si>
+    <t>TEC850474| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Nunna Keerthi</t>
+  </si>
+  <si>
+    <t>Activity 6 days ago</t>
+  </si>
+  <si>
+    <t>TEC738876| Profile Created for  Relative</t>
+  </si>
+  <si>
+    <t>Goriparthi Hema</t>
+  </si>
+  <si>
+    <t>TEC632110| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Srilatha Gollapudi</t>
+  </si>
+  <si>
+    <t>TEC726329| Profile Created for  Sister</t>
+  </si>
+  <si>
+    <t>Priyanka</t>
+  </si>
+  <si>
+    <t>TEC892323| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Sunitha</t>
+  </si>
+  <si>
+    <t>TEC705340| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>M.Tech. , NIT Warangal - National Institute of Tec...</t>
+  </si>
+  <si>
+    <t>TEC226272| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Yashaswi J</t>
+  </si>
+  <si>
+    <t>TEC889252| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Kousalya</t>
+  </si>
+  <si>
+    <t>27 yrs, 5 ft 7 in / 170 cm</t>
+  </si>
+  <si>
+    <t>TEC676677| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Ramya Sree</t>
+  </si>
+  <si>
+    <t>TEC666867| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>23 yrs, 5 ft 4 in / 162 cm</t>
+  </si>
+  <si>
+    <t>TEC846067| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Nagulla Divya</t>
+  </si>
+  <si>
+    <t>B.Com.</t>
+  </si>
+  <si>
+    <t>TEC827637| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Ruchitha Gunduboyana</t>
+  </si>
+  <si>
+    <t>TEC723313| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>TEC189945| Profile Created for  Self</t>
+  </si>
+  <si>
+    <t>Sravani</t>
+  </si>
+  <si>
+    <t>TEC173954| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Chaitrasri</t>
+  </si>
+  <si>
+    <t>TEC759976| Profile Created for  Sister</t>
+  </si>
+  <si>
+    <t>Pandi Padmavathi</t>
+  </si>
+  <si>
+    <t>B.Tech. , Velagapudi Ramakrishna Siddhartha Engine...</t>
+  </si>
+  <si>
+    <t>TEC621747| Profile Created for  Self</t>
+  </si>
+  <si>
+    <t>Sudha</t>
+  </si>
+  <si>
+    <t>TEC825792| Profile Created for  Relative</t>
+  </si>
+  <si>
+    <t>Tejasvi</t>
+  </si>
+  <si>
+    <t>TEC795181| Profile Created for  Relative</t>
+  </si>
+  <si>
+    <t>Soumya</t>
+  </si>
+  <si>
+    <t>TEC503008| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Ishwarya</t>
+  </si>
+  <si>
+    <t>TEC136887| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>Gk</t>
+  </si>
+  <si>
+    <t>TEC787407| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>B.Tech. , KL University</t>
+  </si>
+  <si>
+    <t>TEC152836| Profile Created for  Daughter</t>
+  </si>
+  <si>
+    <t>TEC518416| Profile Created for  Self</t>
+  </si>
+  <si>
+    <t>TEC781249 | Profile Created for  Sister</t>
+  </si>
+  <si>
     <t>Allam Nandini</t>
   </si>
   <si>
@@ -218,21 +1085,12 @@
     <t>TEC556111| Profile Created for  Daughter</t>
   </si>
   <si>
-    <t>Shobha Rani</t>
-  </si>
-  <si>
-    <t>B.Tech. , Malla Reddy Engineering College for Wome...</t>
-  </si>
-  <si>
     <t>TEC409639| Profile Created for  Daughter</t>
   </si>
   <si>
     <t>Jayanthi</t>
   </si>
   <si>
-    <t>India, Telangana, Yadadri Bhuvanagiri</t>
-  </si>
-  <si>
     <t>TEC737835| Profile Created for  Sister</t>
   </si>
   <si>
@@ -242,58 +1100,22 @@
     <t>B.Tech. , Kandula Obul Reddy Memorial College Of E...</t>
   </si>
   <si>
-    <t>India, Andhra Pradesh, Cuddapah</t>
-  </si>
-  <si>
     <t>TEC425063| Profile Created for  Sister</t>
   </si>
   <si>
     <t>TEC425064| Profile Created for  Sister</t>
   </si>
   <si>
-    <t>Preethi D</t>
-  </si>
-  <si>
-    <t>Bachelor in Arts / Science / Commerce , S.V. Agric...</t>
-  </si>
-  <si>
-    <t>India, Andhra Pradesh, Tirupati</t>
-  </si>
-  <si>
-    <t>Activity 4 days ago</t>
-  </si>
-  <si>
-    <t>TEC917013| Profile Created for  Daughter</t>
-  </si>
-  <si>
-    <t>Varalakshmi</t>
-  </si>
-  <si>
-    <t>M.Tech. , NIT Durgapur - National Institute Of Tec...</t>
-  </si>
-  <si>
-    <t>India, Andhra Pradesh, Rajahmundry</t>
-  </si>
-  <si>
-    <t>Activity 6 days ago</t>
-  </si>
-  <si>
-    <t>TEC915972| Profile Created for  Daughter</t>
-  </si>
-  <si>
-    <t>Later</t>
-  </si>
-  <si>
-    <t>22 yrs, 5 ft 9 in / 175 cm</t>
-  </si>
-  <si>
-    <t>India, Andhra Pradesh, Visakhapatnam</t>
-  </si>
-  <si>
-    <t>Activity 4 wks ago</t>
-  </si>
-  <si>
-    <t>TEC903549| Profile Created for  Daughter</t>
+    <t>Kalyani Maruboina</t>
+  </si>
+  <si>
+    <t>Bachelor in Engineering / Computers</t>
+  </si>
+  <si>
+    <t>TEC561290| Profile Created for  Self</t>
+  </si>
+  <si>
+    <t>TEC508567| Profile Created for  Self</t>
   </si>
 </sst>
 </file>
@@ -338,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -395,190 +1217,190 @@
         <v>14</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s" s="0">
         <v>10</v>
       </c>
       <c r="F3" t="s" s="0">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s" s="0">
         <v>18</v>
       </c>
       <c r="D4" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>19</v>
-      </c>
-      <c r="E4" t="s" s="0">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s" s="0">
-        <v>20</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="C5" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="C5" t="s" s="0">
+      <c r="E5" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s" s="0">
         <v>23</v>
-      </c>
-      <c r="D5" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="F5" t="s" s="0">
-        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s" s="0">
         <v>27</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s" s="0">
-        <v>31</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s" s="0">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s" s="0">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>44</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>9</v>
       </c>
       <c r="E10" t="s" s="0">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>42</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="E11" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="F11" t="s" s="0">
         <v>47</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s" s="0">
-        <v>48</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B12" t="s" s="0">
-        <v>28</v>
-      </c>
       <c r="C12" t="s" s="0">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D12" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E12" t="s" s="0">
         <v>50</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>43</v>
       </c>
       <c r="F12" t="s" s="0">
         <v>51</v>
@@ -589,216 +1411,216 @@
         <v>52</v>
       </c>
       <c r="B13" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s" s="0">
         <v>53</v>
-      </c>
-      <c r="C13" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="F13" t="s" s="0">
-        <v>54</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E14" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="B14" t="s" s="0">
+      <c r="F14" t="s" s="0">
         <v>56</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>9</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="F14" t="s" s="0">
-        <v>57</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B15" t="s" s="0">
+      <c r="D15" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s" s="0">
         <v>59</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="F15" t="s" s="0">
-        <v>61</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s" s="0">
+      <c r="E16" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>63</v>
-      </c>
-      <c r="D16" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="F16" t="s" s="0">
-        <v>64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B17" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="C17" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="C17" t="s" s="0">
-        <v>18</v>
-      </c>
       <c r="D17" t="s" s="0">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s" s="0">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s" s="0">
         <v>9</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>76</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>78</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s" s="0">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s" s="0">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="F23" t="s" s="0">
         <v>88</v>
@@ -806,22 +1628,2562 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E24" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B24" t="s" s="0">
+      <c r="F24" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="C24" t="s" s="0">
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="F25" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C26" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="D26" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="E26" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F26" t="s" s="0">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s" s="0">
         <v>29</v>
       </c>
-      <c r="D24" t="s" s="0">
-        <v>91</v>
-      </c>
-      <c r="E24" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="F24" t="s" s="0">
-        <v>93</v>
+      <c r="C27" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C28" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="D28" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s" s="0">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F29" t="s" s="0">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F30" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C31" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D31" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F31" t="s" s="0">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C32" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="D32" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F32" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C33" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="D33" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="E33" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s" s="0">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F34" t="s" s="0">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>21</v>
+      </c>
+      <c r="C35" t="s" s="0">
+        <v>113</v>
+      </c>
+      <c r="D35" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="E35" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F35" t="s" s="0">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="C36" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D36" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="E36" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F36" t="s" s="0">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>122</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C37" t="s" s="0">
+        <v>124</v>
+      </c>
+      <c r="D37" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F37" t="s" s="0">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C38" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="D38" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="E38" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F38" t="s" s="0">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>130</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C39" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D39" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E39" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F39" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C40" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D40" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="E40" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>137</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C41" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D41" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="E41" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F41" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C42" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D42" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E42" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F42" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="D43" t="s" s="0">
+        <v>145</v>
+      </c>
+      <c r="E43" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F43" t="s" s="0">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C44" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="D44" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="E44" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F44" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>147</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C45" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="D45" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="E45" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F45" t="s" s="0">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C46" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="E46" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F46" t="s" s="0">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="D47" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E47" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F47" t="s" s="0">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>157</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C48" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="D48" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E48" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F48" t="s" s="0">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C49" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="D49" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E49" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F49" t="s" s="0">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>163</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C50" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D50" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="E50" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F50" t="s" s="0">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C51" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="D51" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F51" t="s" s="0">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C52" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="D52" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E52" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F52" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="C53" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E53" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F53" t="s" s="0">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>17</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F54" t="s" s="0">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C55" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E55" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F55" t="s" s="0">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F56" t="s" s="0">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F57" t="s" s="0">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C58" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D58" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E58" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F58" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C59" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="E59" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F59" t="s" s="0">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="D60" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="F60" t="s" s="0">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C61" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="D61" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E61" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F61" t="s" s="0">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D62" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E62" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F62" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C63" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="D63" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E63" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F63" t="s" s="0">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C64" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="D64" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F64" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C65" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D65" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="E65" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F65" t="s" s="0">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C66" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D66" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="E66" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="F66" t="s" s="0">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C67" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D67" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E67" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="F67" t="s" s="0">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C68" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D68" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E68" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="F68" t="s" s="0">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="C69" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="D69" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="E69" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F69" t="s" s="0">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="C70" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D70" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F70" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C71" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D71" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="E71" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F71" t="s" s="0">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C72" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D72" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E72" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F72" t="s" s="0">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="C73" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D73" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E73" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F73" t="s" s="0">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C74" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D74" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="E74" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F74" t="s" s="0">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C75" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="D75" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="E75" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F75" t="s" s="0">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C76" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D76" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="E76" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F76" t="s" s="0">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>213</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C77" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="D77" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="E77" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F77" t="s" s="0">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C78" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D78" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E78" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F78" t="s" s="0">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="C79" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="D79" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="E79" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F79" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C80" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D80" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="E80" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F80" t="s" s="0">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>225</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="E81" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F81" t="s" s="0">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>227</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="E82" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F82" t="s" s="0">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C83" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="D83" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="E83" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F83" t="s" s="0">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C84" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="D84" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="E84" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F84" t="s" s="0">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C85" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="D85" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="E85" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F85" t="s" s="0">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B86" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C86" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="D86" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E86" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F86" t="s" s="0">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="B87" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C87" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D87" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E87" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F87" t="s" s="0">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B88" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="C88" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D88" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="E88" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F88" t="s" s="0">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="B89" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="C89" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="D89" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="E89" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F89" t="s" s="0">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s" s="0">
+        <v>251</v>
+      </c>
+      <c r="B90" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C90" t="s" s="0">
+        <v>252</v>
+      </c>
+      <c r="D90" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="E90" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F90" t="s" s="0">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="B91" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="C91" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D91" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="E91" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F91" t="s" s="0">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>259</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D92" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E92" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F92" t="s" s="0">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>261</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D93" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E93" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F93" t="s" s="0">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="D94" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E94" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F94" t="s" s="0">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>264</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>265</v>
+      </c>
+      <c r="D95" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E95" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F95" t="s" s="0">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D96" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E96" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F96" t="s" s="0">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>269</v>
+      </c>
+      <c r="B97" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C97" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D97" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="E97" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F97" t="s" s="0">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="B98" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="C98" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="D98" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E98" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F98" t="s" s="0">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="B99" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C99" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D99" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E99" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F99" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B100" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C100" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D100" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="E100" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F100" t="s" s="0">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="B101" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C101" t="s" s="0">
+        <v>277</v>
+      </c>
+      <c r="D101" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="E101" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F101" t="s" s="0">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="0">
+        <v>279</v>
+      </c>
+      <c r="B102" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="C102" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="D102" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E102" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F102" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B103" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C103" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D103" t="s" s="0">
+        <v>283</v>
+      </c>
+      <c r="E103" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F103" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="0">
+        <v>285</v>
+      </c>
+      <c r="B104" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C104" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D104" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E104" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F104" t="s" s="0">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B105" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C105" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="D105" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="E105" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F105" t="s" s="0">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="0">
+        <v>289</v>
+      </c>
+      <c r="B106" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="C106" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D106" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="E106" t="s" s="0">
+        <v>291</v>
+      </c>
+      <c r="F106" t="s" s="0">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B107" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C107" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="D107" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E107" t="s" s="0">
+        <v>46</v>
+      </c>
+      <c r="F107" t="s" s="0">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B108" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C108" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="D108" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="E108" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="F108" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B109" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C109" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D109" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="E109" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="F109" t="s" s="0">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B110" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C110" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D110" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E110" t="s" s="0">
+        <v>303</v>
+      </c>
+      <c r="F110" t="s" s="0">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B111" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C111" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D111" t="s" s="0">
+        <v>299</v>
+      </c>
+      <c r="E111" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F111" t="s" s="0">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B112" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="C112" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D112" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="E112" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="F112" t="s" s="0">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="B113" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C113" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D113" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E113" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="F113" t="s" s="0">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B114" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C114" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D114" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="E114" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F114" t="s" s="0">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B115" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="C115" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="D115" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="E115" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F115" t="s" s="0">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="B116" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="C116" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D116" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E116" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F116" t="s" s="0">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B117" t="s" s="0">
+        <v>318</v>
+      </c>
+      <c r="C117" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D117" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E117" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F117" t="s" s="0">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="B118" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C118" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D118" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E118" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F118" t="s" s="0">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B119" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="C119" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D119" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="E119" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F119" t="s" s="0">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B120" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="C120" t="s" s="0">
+        <v>325</v>
+      </c>
+      <c r="D120" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="E120" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F120" t="s" s="0">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>327</v>
+      </c>
+      <c r="B121" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="C121" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D121" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E121" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="F121" t="s" s="0">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B122" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C122" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D122" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="E122" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="F122" t="s" s="0">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="B123" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C123" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D123" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="E123" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F123" t="s" s="0">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="B124" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C124" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D124" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E124" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F124" t="s" s="0">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="B125" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="C125" t="s" s="0">
+        <v>335</v>
+      </c>
+      <c r="D125" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="E125" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F125" t="s" s="0">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B126" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C126" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="D126" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E126" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F126" t="s" s="0">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B127" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="C127" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D127" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E127" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F127" t="s" s="0">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="B128" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C128" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D128" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E128" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F128" t="s" s="0">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B129" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C129" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D129" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="E129" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F129" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B130" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="C130" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D130" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="E130" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F130" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="B131" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C131" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="D131" t="s" s="0">
+        <v>15</v>
+      </c>
+      <c r="E131" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F131" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B132" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="C132" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="D132" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E132" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F132" t="s" s="0">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B133" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C133" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D133" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="E133" t="s" s="0">
+        <v>73</v>
+      </c>
+      <c r="F133" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B134" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="C134" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="D134" t="s" s="0">
+        <v>181</v>
+      </c>
+      <c r="E134" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="F134" t="s" s="0">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B135" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C135" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D135" t="s" s="0">
+        <v>185</v>
+      </c>
+      <c r="E135" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="F135" t="s" s="0">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="B136" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C136" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D136" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E136" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="F136" t="s" s="0">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B137" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="C137" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="D137" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="E137" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F137" t="s" s="0">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B138" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="C138" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D138" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E138" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F138" t="s" s="0">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B139" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C139" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D139" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="E139" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F139" t="s" s="0">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B140" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="C140" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D140" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E140" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F140" t="s" s="0">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B141" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="C141" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D141" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E141" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F141" t="s" s="0">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s" s="0">
+        <v>205</v>
+      </c>
+      <c r="B142" t="s" s="0">
+        <v>43</v>
+      </c>
+      <c r="C142" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D142" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="E142" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F142" t="s" s="0">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B143" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="C143" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="D143" t="s" s="0">
+        <v>22</v>
+      </c>
+      <c r="E143" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F143" t="s" s="0">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="B144" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="C144" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="D144" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="E144" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F144" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B145" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C145" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="D145" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E145" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F145" t="s" s="0">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s" s="0">
+        <v>358</v>
+      </c>
+      <c r="B146" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="C146" t="s" s="0">
+        <v>18</v>
+      </c>
+      <c r="D146" t="s" s="0">
+        <v>223</v>
+      </c>
+      <c r="E146" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F146" t="s" s="0">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="B147" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C147" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="D147" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="E147" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F147" t="s" s="0">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="B148" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C148" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="D148" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="E148" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F148" t="s" s="0">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="B149" t="s" s="0">
+        <v>123</v>
+      </c>
+      <c r="C149" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="D149" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="E149" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F149" t="s" s="0">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s" s="0">
+        <v>99</v>
+      </c>
+      <c r="B150" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C150" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="D150" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="E150" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F150" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B151" t="s" s="0">
+        <v>65</v>
+      </c>
+      <c r="C151" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="D151" t="s" s="0">
+        <v>9</v>
+      </c>
+      <c r="E151" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="F151" t="s" s="0">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
